--- a/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Evolutive" sheetId="8" r:id="rId1"/>
+    <sheet name="BR" sheetId="9" r:id="rId1"/>
+    <sheet name="Evolutive" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>VALORE ATTESO</t>
   </si>
@@ -121,13 +122,73 @@
   </si>
   <si>
     <t>VALORE</t>
+  </si>
+  <si>
+    <t>BR163 - Rate impagate su c/c Banca  (Indicatore 106, Indicatore 107, Indicatore 108)</t>
+  </si>
+  <si>
+    <t>Rate impagate</t>
+  </si>
+  <si>
+    <t>qualitativo</t>
+  </si>
+  <si>
+    <t>BR164 - Rate impagate con RID/MAV (Indicatore 109, Indicatore 110, Indicatore 111)</t>
+  </si>
+  <si>
+    <t>IND_109 &gt;=1 AND IND_110 &gt;= 27 AND IND_111 &gt; 50</t>
+  </si>
+  <si>
+    <t>BUSINESS RULES</t>
+  </si>
+  <si>
+    <t>Sottomodulo</t>
+  </si>
+  <si>
+    <t>COLORE</t>
+  </si>
+  <si>
+    <t>LOGICA</t>
+  </si>
+  <si>
+    <t>Rosso</t>
+  </si>
+  <si>
+    <t>BR165 - Cessioni del Quinto (Indicatore 112, Indicatore 113)</t>
+  </si>
+  <si>
+    <t>Cessione del quinto</t>
+  </si>
+  <si>
+    <t>IND_112 &gt;=1 AND IND_113 &gt;= 32 AND IND_118 &gt; 50</t>
+  </si>
+  <si>
+    <t>BR546 - Sconfino CC (Indicatore 114, Indicatore 115)</t>
+  </si>
+  <si>
+    <t>Sconfini di CC</t>
+  </si>
+  <si>
+    <t>BR148 - Forborne sconfinato (Indicatore 116 e Indicatore 117)</t>
+  </si>
+  <si>
+    <t>Sconfini di Forborne</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IND_106 1 &gt;= AND IND_107 &gt;= 6 AND IND_108 &gt; 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_114 &gt; 50 AND IND_115 &gt; 7 </t>
+  </si>
+  <si>
+    <t>IND_116=1 AND IND_117 &gt; 50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,8 +209,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +254,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,6 +376,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,9 +729,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AF42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>

--- a/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BR" sheetId="9" r:id="rId1"/>
     <sheet name="Evolutive" sheetId="8" r:id="rId2"/>
+    <sheet name="rilascio" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="103">
   <si>
     <t>VALORE ATTESO</t>
   </si>
@@ -109,12 +110,6 @@
     <t>SEMAFORO_RATE_CC</t>
   </si>
   <si>
-    <t>SEMAFORO_RATE_MAVRAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>IND_114</t>
   </si>
   <si>
@@ -182,13 +177,166 @@
   </si>
   <si>
     <t>IND_116=1 AND IND_117 &gt; 50</t>
+  </si>
+  <si>
+    <t>campi output</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modifiche </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambio soglia,cambio colore </t>
+  </si>
+  <si>
+    <t>cambio colore</t>
+  </si>
+  <si>
+    <t>BR563</t>
+  </si>
+  <si>
+    <t>BR564</t>
+  </si>
+  <si>
+    <t>BR565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in </t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>0000000011201749</t>
+  </si>
+  <si>
+    <t>0000000028801955</t>
+  </si>
+  <si>
+    <t>0000000048841233</t>
+  </si>
+  <si>
+    <t>non ci sono sndg</t>
+  </si>
+  <si>
+    <t>VALORE ATTESO BR</t>
+  </si>
+  <si>
+    <t>COLORE ATTESO</t>
+  </si>
+  <si>
+    <t>0000000093444759</t>
+  </si>
+  <si>
+    <t>0000000078485228</t>
+  </si>
+  <si>
+    <t>0000000048481173</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>0000000088628537</t>
+  </si>
+  <si>
+    <t>0000000007196793</t>
+  </si>
+  <si>
+    <t>0000000058212122</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>0000000030618115</t>
+  </si>
+  <si>
+    <t>0000000027156954</t>
+  </si>
+  <si>
+    <t>0000000033660472</t>
+  </si>
+  <si>
+    <t>0000000058180853</t>
+  </si>
+  <si>
+    <t>0000000073353130</t>
+  </si>
+  <si>
+    <t>NUM_RATE_IMPAGATE_DIR</t>
+  </si>
+  <si>
+    <t>NUM_GG_SCADUTO_DIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMP_ARRETRATO_DIR </t>
+  </si>
+  <si>
+    <t>NUM_RATE_IMPAGATE_RIDMAV</t>
+  </si>
+  <si>
+    <t>NUM_GG_SCADUTO_RIDMAV</t>
+  </si>
+  <si>
+    <t>IMP_ARRETRATO_RIDMAV</t>
+  </si>
+  <si>
+    <t>NUM_RATE_IMP_CDQ</t>
+  </si>
+  <si>
+    <t>NUM_GG_SCADUTO_CDQ</t>
+  </si>
+  <si>
+    <t>IMP_SCONFINO_CC</t>
+  </si>
+  <si>
+    <t>NUM_GG_SCONFINO</t>
+  </si>
+  <si>
+    <t>IMP_ARRETRATO_CDQ</t>
+  </si>
+  <si>
+    <t>0000000000000537</t>
+  </si>
+  <si>
+    <t>0000000000000538</t>
+  </si>
+  <si>
+    <t>0000000000000539</t>
+  </si>
+  <si>
+    <t>0000000000000540</t>
+  </si>
+  <si>
+    <t>0000000000000541</t>
+  </si>
+  <si>
+    <t>0000000000000542</t>
+  </si>
+  <si>
+    <t>0000000000000543</t>
+  </si>
+  <si>
+    <t>0000000000000544</t>
+  </si>
+  <si>
+    <t>non utilizzata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +385,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -367,13 +543,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,6 +581,65 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E8"/>
+  <dimension ref="A3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,108 +973,112 @@
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="47" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="26" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="B6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -853,109 +1088,221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AF42"/>
+  <dimension ref="A2:AL43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="2"/>
-    <col min="17" max="18" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="2"/>
+    <col min="19" max="19" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="46" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="S2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="20" t="s">
+      <c r="V2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="AA2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE2" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH2" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ2" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK2" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL2" s="52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3">
-        <v>51</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8">
+        <v>960</v>
+      </c>
+      <c r="G3" s="12">
+        <v>13943.58</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>30</v>
+      <c r="R3" s="3"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -963,767 +1310,1429 @@
       <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
-        <v>3</v>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="E4" s="3">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F4" s="3">
-        <v>200</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>2568</v>
+      </c>
+      <c r="G4" s="12">
+        <v>15194.94</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <v>0</v>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E5" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+        <v>709</v>
+      </c>
+      <c r="G5" s="12">
+        <v>790.26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>55</v>
+      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
         <v>6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>55</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="7"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="46"/>
+      <c r="AA6" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>50</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="7"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="45"/>
+      <c r="Y7" s="46"/>
+      <c r="AA7" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>50</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>200</v>
+      </c>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>27</v>
-      </c>
-      <c r="I8" s="3">
-        <v>55</v>
-      </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA8" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>25</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3">
-        <v>5</v>
-      </c>
-      <c r="H9" s="3">
-        <v>30</v>
-      </c>
-      <c r="I9" s="3">
-        <v>200</v>
-      </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="12">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1091</v>
+      </c>
+      <c r="K9" s="39">
+        <v>8910.82</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="8">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA9" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>35</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>71</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>30</v>
-      </c>
-      <c r="I10" s="3">
-        <v>60</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="39">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1346</v>
+      </c>
+      <c r="K10" s="40">
+        <v>471.84</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>72</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>0</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3">
-        <v>6</v>
-      </c>
-      <c r="H11" s="3">
-        <v>5</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
       <c r="I11" s="3">
-        <v>55</v>
-      </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2809</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9667.6200000000008</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="8">
         <v>0</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <v>2</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8</v>
-      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
       <c r="I12" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>55</v>
+      </c>
+      <c r="L12" s="7"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="46"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B13" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>32</v>
-      </c>
-      <c r="L13" s="13">
-        <v>55</v>
-      </c>
-      <c r="M13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="46"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="B14" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6">
-        <v>2</v>
-      </c>
-      <c r="K14" s="6">
-        <v>90</v>
-      </c>
-      <c r="L14" s="13">
-        <v>200</v>
-      </c>
-      <c r="M14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>50</v>
-      </c>
-      <c r="L15" s="16">
-        <v>200</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>486</v>
+      </c>
+      <c r="O15" s="41">
+        <v>3188.24</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>75</v>
+      </c>
       <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6">
-        <v>2</v>
-      </c>
-      <c r="K16" s="13">
-        <v>25</v>
-      </c>
-      <c r="L16" s="13">
-        <v>51</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1734</v>
+      </c>
+      <c r="O16" s="42">
+        <v>9355.49</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="8">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="8">
         <v>0</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="8">
-        <v>5</v>
-      </c>
-      <c r="K17" s="8">
-        <v>33</v>
-      </c>
-      <c r="L17" s="16">
-        <v>35</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="16">
+        <v>200</v>
+      </c>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="3">
-        <v>8</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="13">
+        <v>25</v>
+      </c>
+      <c r="O18" s="13">
         <v>51</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B19" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="8">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="3">
-        <v>10</v>
-      </c>
-      <c r="N19" s="5">
-        <v>200</v>
-      </c>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8">
+        <v>5</v>
+      </c>
+      <c r="N19" s="8">
+        <v>33</v>
+      </c>
+      <c r="O19" s="16">
+        <v>35</v>
+      </c>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8">
         <v>0</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="3">
-        <v>7</v>
-      </c>
-      <c r="N20" s="5">
-        <v>55</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="B21" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="3">
-        <v>10</v>
-      </c>
-      <c r="N21" s="5">
-        <v>40</v>
-      </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="12">
+        <v>453</v>
+      </c>
+      <c r="R21" s="3">
+        <v>64</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>79</v>
+      </c>
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="12">
+        <v>101</v>
+      </c>
+      <c r="R22" s="3">
+        <v>10</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="8">
         <v>1</v>
       </c>
-      <c r="P22" s="5">
-        <v>60</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+      <c r="X22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>67</v>
+      </c>
       <c r="B23" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="5"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5">
-        <v>1</v>
-      </c>
-      <c r="P23" s="5">
-        <v>51</v>
-      </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="3">
+        <v>7</v>
+      </c>
+      <c r="R23" s="3">
+        <v>40</v>
+      </c>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>80</v>
+      </c>
       <c r="B24" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="8">
         <v>0</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="5"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5">
-        <v>1</v>
-      </c>
-      <c r="P24" s="5">
-        <v>40</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12">
+        <v>18000</v>
+      </c>
+      <c r="R24" s="3">
+        <v>136</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="B25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="8">
         <v>0</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5">
-        <v>0</v>
-      </c>
-      <c r="P25" s="5">
-        <v>55</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3">
+      <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>3837</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="12">
+        <v>498</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>45700379</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="48">
+        <v>0</v>
+      </c>
+      <c r="D29" s="48"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="12">
+        <v>246</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="8">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>58212122</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="43"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>24</v>
       </c>
@@ -1734,15 +2743,19 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="17"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="H34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>24</v>
       </c>
@@ -1750,59 +2763,43 @@
         <v>22</v>
       </c>
       <c r="C35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="17"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="15"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="H35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="7">
         <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="17"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="10"/>
+      <c r="H36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -1824,25 +2821,35 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
       <c r="AE36" s="10"/>
-      <c r="AF36" s="15"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="15"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="18"/>
+        <v>23</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="17"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="10"/>
+      <c r="H37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
       <c r="M37" s="10"/>
@@ -1864,25 +2871,33 @@
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
       <c r="AE37" s="10"/>
-      <c r="AF37" s="15"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="15"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="17"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="10"/>
+      <c r="H38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -1904,25 +2919,33 @@
       <c r="AC38" s="10"/>
       <c r="AD38" s="10"/>
       <c r="AE38" s="10"/>
-      <c r="AF38" s="15"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="15"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="18">
-        <v>1</v>
-      </c>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="10"/>
+      <c r="H39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
@@ -1944,25 +2967,33 @@
       <c r="AC39" s="10"/>
       <c r="AD39" s="10"/>
       <c r="AE39" s="10"/>
-      <c r="AF39" s="15"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="15"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="18">
-        <v>0</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
@@ -1984,25 +3015,33 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
       <c r="AE40" s="10"/>
-      <c r="AF40" s="15"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="15"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="14">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="10"/>
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -2024,26 +3063,244 @@
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="10"/>
-      <c r="AF41" s="15"/>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="15"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="G42" s="14">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="15"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
   <si>
     <t>VALORE ATTESO</t>
   </si>
@@ -224,9 +224,6 @@
     <t>0000000048841233</t>
   </si>
   <si>
-    <t>non ci sono sndg</t>
-  </si>
-  <si>
     <t>VALORE ATTESO BR</t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>non utilizzata</t>
+  </si>
+  <si>
+    <t>SEMAFORO_RATE_MAV</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,12 +436,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -600,9 +594,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,13 +607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,10 +1110,10 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -1140,7 +1124,7 @@
       <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1152,8 +1136,8 @@
       <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>28</v>
+      <c r="L2" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>7</v>
@@ -1164,7 +1148,7 @@
       <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1173,7 +1157,7 @@
       <c r="R2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="1" t="s">
@@ -1182,7 +1166,7 @@
       <c r="U2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="W2" s="18" t="s">
@@ -1197,38 +1181,38 @@
       <c r="AA2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="AC2" s="51" t="s">
+      <c r="AD2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="AD2" s="51" t="s">
+      <c r="AE2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="AE2" s="51" t="s">
+      <c r="AF2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AG2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="AG2" s="51" t="s">
+      <c r="AH2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" s="52" t="s">
+      <c r="AI2" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="AI2" s="52" t="s">
+      <c r="AJ2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK2" s="52" t="s">
+      <c r="AL2" s="48" t="s">
         <v>91</v>
-      </c>
-      <c r="AL2" s="52" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.3">
@@ -1277,10 +1261,10 @@
         <v>22</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA3" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AB3" s="3">
         <v>6</v>
@@ -1346,10 +1330,10 @@
         <v>22</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA4" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB4" s="3">
         <v>2</v>
@@ -1415,10 +1399,10 @@
         <v>23</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA5" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -1439,8 +1423,8 @@
       <c r="AL5" s="5"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>67</v>
+      <c r="A6" s="32" t="s">
+        <v>93</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -1448,8 +1432,8 @@
       <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="3">
         <v>6</v>
@@ -1460,7 +1444,9 @@
       <c r="G6" s="3">
         <v>55</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1475,11 +1461,17 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="45"/>
-      <c r="Y6" s="46"/>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AA6" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
@@ -1500,8 +1492,8 @@
       <c r="AL6" s="5"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>67</v>
+      <c r="A7" s="32" t="s">
+        <v>94</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
@@ -1509,8 +1501,8 @@
       <c r="C7" s="8">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
@@ -1521,7 +1513,9 @@
       <c r="G7" s="3">
         <v>50</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1536,11 +1530,17 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="46"/>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="AA7" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
@@ -1574,13 +1574,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>23</v>
@@ -1606,10 +1606,10 @@
         <v>23</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>13</v>
@@ -1652,7 +1652,7 @@
       <c r="J9" s="3">
         <v>1091</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="38">
         <v>8910.82</v>
       </c>
       <c r="L9" s="7" t="s">
@@ -1675,10 +1675,10 @@
         <v>22</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA9" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>13</v>
@@ -1715,13 +1715,13 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="7"/>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <v>6</v>
       </c>
       <c r="J10" s="3">
         <v>1346</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="39">
         <v>471.84</v>
       </c>
       <c r="L10" s="7" t="s">
@@ -1744,10 +1744,10 @@
         <v>22</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AA10" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>13</v>
@@ -1811,12 +1811,12 @@
         <v>23</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
-        <v>67</v>
+      <c r="A12" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>13</v>
@@ -1840,7 +1840,9 @@
       <c r="K12" s="3">
         <v>55</v>
       </c>
-      <c r="L12" s="7"/>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1851,13 +1853,19 @@
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="46"/>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
-        <v>67</v>
+      <c r="A13" s="32" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>13</v>
@@ -1881,7 +1889,9 @@
       <c r="K13" s="3">
         <v>50</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1892,13 +1902,19 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="46"/>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>13</v>
@@ -1914,13 +1930,13 @@
       <c r="G14" s="5"/>
       <c r="H14" s="7"/>
       <c r="I14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>23</v>
@@ -1942,12 +1958,12 @@
         <v>23</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>14</v>
@@ -1972,7 +1988,7 @@
       <c r="N15" s="6">
         <v>486</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="40">
         <v>3188.24</v>
       </c>
       <c r="P15" s="13" t="s">
@@ -1991,13 +2007,13 @@
         <v>22</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>14</v>
@@ -2022,7 +2038,7 @@
       <c r="N16" s="6">
         <v>1734</v>
       </c>
-      <c r="O16" s="42">
+      <c r="O16" s="41">
         <v>9355.49</v>
       </c>
       <c r="P16" s="13" t="s">
@@ -2041,12 +2057,12 @@
         <v>22</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
-        <v>67</v>
+      <c r="A17" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>14</v>
@@ -2074,21 +2090,29 @@
       <c r="O17" s="16">
         <v>200</v>
       </c>
-      <c r="P17" s="16"/>
+      <c r="P17" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="AG17" s="50"/>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG17" s="46"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>67</v>
+      <c r="A18" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>14</v>
@@ -2116,20 +2140,28 @@
       <c r="O18" s="13">
         <v>51</v>
       </c>
-      <c r="P18" s="13"/>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
-        <v>67</v>
+      <c r="A19" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>14</v>
@@ -2157,20 +2189,28 @@
       <c r="O19" s="16">
         <v>35</v>
       </c>
-      <c r="P19" s="16"/>
+      <c r="P19" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>14</v>
@@ -2190,13 +2230,13 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>23</v>
@@ -2214,12 +2254,12 @@
         <v>23</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>16</v>
@@ -2261,12 +2301,12 @@
         <v>22</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>16</v>
@@ -2308,12 +2348,12 @@
         <v>22</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>67</v>
+      <c r="A23" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>16</v>
@@ -2342,18 +2382,26 @@
       <c r="R23" s="3">
         <v>40</v>
       </c>
-      <c r="S23" s="5"/>
+      <c r="S23" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="Z23" s="9"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>16</v>
@@ -2395,12 +2443,12 @@
         <v>23</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>16</v>
@@ -2424,10 +2472,10 @@
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
       <c r="Q25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>23</v>
@@ -2442,12 +2490,12 @@
         <v>23</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>17</v>
@@ -2489,12 +2537,12 @@
         <v>22</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>17</v>
@@ -2536,7 +2584,7 @@
         <v>22</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
@@ -2583,20 +2631,20 @@
         <v>23</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="48" t="s">
+      <c r="A29" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="48">
-        <v>0</v>
-      </c>
-      <c r="D29" s="48"/>
+      <c r="C29" s="44">
+        <v>0</v>
+      </c>
+      <c r="D29" s="44"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -2626,7 +2674,7 @@
         <v>23</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
@@ -2661,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="V30" s="3" t="s">
         <v>23</v>
@@ -2673,35 +2721,35 @@
         <v>23</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="10"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="43"/>
+      <c r="S31" s="42"/>
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
-      <c r="W31" s="49"/>
+      <c r="W31" s="45"/>
       <c r="X31" s="10"/>
-      <c r="Y31" s="43"/>
+      <c r="Y31" s="42"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -2752,7 +2800,7 @@
         <v>22</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.3">
@@ -2775,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
@@ -2798,7 +2846,7 @@
         <v>22</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -2848,7 +2896,7 @@
         <v>23</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -2896,7 +2944,7 @@
         <v>22</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -2944,7 +2992,7 @@
         <v>23</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -2992,7 +3040,7 @@
         <v>22</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K40" s="10"/>
       <c r="L40" s="10"/>
@@ -3040,7 +3088,7 @@
         <v>23</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -3088,7 +3136,7 @@
         <v>22</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -3136,7 +3184,7 @@
         <v>23</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3260,7 +3308,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -3272,7 +3320,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -3284,7 +3332,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -3296,7 +3344,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BR" sheetId="9" r:id="rId1"/>
-    <sheet name="Evolutive" sheetId="8" r:id="rId2"/>
-    <sheet name="rilascio" sheetId="10" r:id="rId3"/>
+    <sheet name="Evolutive1.0" sheetId="11" r:id="rId2"/>
+    <sheet name="Evolutive2.0" sheetId="8" r:id="rId3"/>
+    <sheet name="rilascio" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="104">
   <si>
     <t>VALORE ATTESO</t>
   </si>
@@ -330,6 +331,9 @@
   </si>
   <si>
     <t>SEMAFORO_RATE_MAV</t>
+  </si>
+  <si>
+    <t>0000000021259873</t>
   </si>
 </sst>
 </file>
@@ -1074,8 +1078,2134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="28.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.109375" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="2"/>
+    <col min="19" max="19" width="24.5546875" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" customWidth="1"/>
+    <col min="21" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="21.6640625" customWidth="1"/>
+    <col min="27" max="27" width="17.88671875" customWidth="1"/>
+    <col min="28" max="46" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:38" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL2" s="48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="8">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8">
+        <v>960</v>
+      </c>
+      <c r="G3" s="39">
+        <v>13943.58</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2568</v>
+      </c>
+      <c r="G4" s="39">
+        <v>15194.94</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="8">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA4" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>709</v>
+      </c>
+      <c r="G5" s="39">
+        <v>790.26</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="8">
+        <v>0</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="3">
+        <v>6</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>5</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>55</v>
+      </c>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>55</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="8">
+        <v>0</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA6" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>8</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
+        <v>50</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="8">
+        <v>0</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>50</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>200</v>
+      </c>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="13">
+        <v>25</v>
+      </c>
+      <c r="AJ8" s="13">
+        <v>51</v>
+      </c>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="12">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1091</v>
+      </c>
+      <c r="K9" s="38">
+        <v>8910.82</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="8">
+        <v>1</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="8">
+        <v>5</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>33</v>
+      </c>
+      <c r="AJ9" s="16">
+        <v>35</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="38">
+        <v>6</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1346</v>
+      </c>
+      <c r="K10" s="39">
+        <v>471.84</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="8">
+        <v>1</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="3">
+        <v>7</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2809</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9667.6200000000008</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="8">
+        <v>0</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3">
+        <v>6</v>
+      </c>
+      <c r="J12" s="3">
+        <v>5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>55</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="8">
+        <v>0</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>8</v>
+      </c>
+      <c r="K13" s="3">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="8">
+        <v>0</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="8">
+        <v>0</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>486</v>
+      </c>
+      <c r="O15" s="40">
+        <v>3188.24</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="8">
+        <v>1</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="9"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="6">
+        <v>6</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1734</v>
+      </c>
+      <c r="O16" s="41">
+        <v>9355.49</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="8">
+        <v>1</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="16">
+        <v>200</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG17" s="46"/>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6">
+        <v>2</v>
+      </c>
+      <c r="N18" s="13">
+        <v>25</v>
+      </c>
+      <c r="O18" s="13">
+        <v>51</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="8">
+        <v>0</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="8">
+        <v>5</v>
+      </c>
+      <c r="N19" s="8">
+        <v>33</v>
+      </c>
+      <c r="O19" s="16">
+        <v>35</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="8">
+        <v>0</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="8">
+        <v>0</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="12">
+        <v>453</v>
+      </c>
+      <c r="R21" s="3">
+        <v>64</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="8">
+        <v>1</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="12">
+        <v>101</v>
+      </c>
+      <c r="R22" s="3">
+        <v>10</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="8">
+        <v>1</v>
+      </c>
+      <c r="X22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="3">
+        <v>7</v>
+      </c>
+      <c r="R23" s="3">
+        <v>40</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="8">
+        <v>0</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12">
+        <v>18000</v>
+      </c>
+      <c r="R24" s="3">
+        <v>136</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="8">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A26" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>3837</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="8">
+        <v>1</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="3">
+        <v>1</v>
+      </c>
+      <c r="U27" s="12">
+        <v>498</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="8">
+        <v>1</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="3">
+        <v>1</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W28" s="8">
+        <v>0</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y28" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="44">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="12">
+        <v>246</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W29" s="44">
+        <v>0</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>58212122</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="W30" s="8">
+        <v>0</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y30" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="42"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="7">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="10"/>
+      <c r="AJ36" s="10"/>
+      <c r="AK36" s="15"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="10"/>
+      <c r="AJ37" s="10"/>
+      <c r="AK37" s="15"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="15"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="15"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="15"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="15"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="14">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="15"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AL43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3192,12 +5322,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
+++ b/earlywarning-pom/Document/test/RETAIL/test_BR_Retail_Evolutive.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="105">
   <si>
     <t>VALORE ATTESO</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>0000000021259873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cambio soglia </t>
   </si>
 </sst>
 </file>
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5327,7 +5330,7 @@
   <dimension ref="B3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5426,7 +5429,7 @@
         <v>55</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
